--- a/data/raw/Tafunell_Ducoing_2016_Kg.xlsx
+++ b/data/raw/Tafunell_Ducoing_2016_Kg.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\capital_stock_paper\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53601975-06E3-426C-8021-5C1F5D7EA32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B802CF9F-47AE-4751-8DFC-5FB5267DAD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD4EA9B3-51AD-4BA0-AF57-9FCF6DE65587}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" xr2:uid="{DD4EA9B3-51AD-4BA0-AF57-9FCF6DE65587}"/>
   </bookViews>
   <sheets>
     <sheet name="Tafunell Ducoing Kg" sheetId="1" r:id="rId1"/>
+    <sheet name="legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -449,21 +450,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0955BDA9-4032-439E-92E2-6A7EF9E7E7ED}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1900</v>
       </c>
@@ -491,7 +491,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1901</v>
       </c>
@@ -505,7 +505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1902</v>
       </c>
@@ -518,14 +518,8 @@
       <c r="D4">
         <v>39.799999999999997</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1903</v>
       </c>
@@ -538,11 +532,8 @@
       <c r="D5">
         <v>39.799999999999997</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1904</v>
       </c>
@@ -556,7 +547,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1905</v>
       </c>
@@ -570,7 +561,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1906</v>
       </c>
@@ -584,7 +575,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1907</v>
       </c>
@@ -598,7 +589,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1908</v>
       </c>
@@ -612,7 +603,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1909</v>
       </c>
@@ -626,7 +617,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1910</v>
       </c>
@@ -640,7 +631,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1911</v>
       </c>
@@ -654,7 +645,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1912</v>
       </c>
@@ -668,7 +659,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1913</v>
       </c>
@@ -682,7 +673,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1914</v>
       </c>
@@ -696,7 +687,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1915</v>
       </c>
@@ -710,7 +701,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1916</v>
       </c>
@@ -724,7 +715,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1917</v>
       </c>
@@ -738,7 +729,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1918</v>
       </c>
@@ -752,7 +743,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1919</v>
       </c>
@@ -766,7 +757,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1920</v>
       </c>
@@ -780,7 +771,7 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1921</v>
       </c>
@@ -794,7 +785,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1922</v>
       </c>
@@ -808,7 +799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1923</v>
       </c>
@@ -822,7 +813,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1924</v>
       </c>
@@ -836,7 +827,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1925</v>
       </c>
@@ -850,7 +841,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1926</v>
       </c>
@@ -864,7 +855,7 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1927</v>
       </c>
@@ -878,7 +869,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1928</v>
       </c>
@@ -892,7 +883,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1929</v>
       </c>
@@ -906,7 +897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1930</v>
       </c>
@@ -920,7 +911,7 @@
         <v>109.6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1931</v>
       </c>
@@ -934,7 +925,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1932</v>
       </c>
@@ -948,7 +939,7 @@
         <v>102.1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1933</v>
       </c>
@@ -962,7 +953,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1934</v>
       </c>
@@ -976,7 +967,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1935</v>
       </c>
@@ -990,7 +981,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1936</v>
       </c>
@@ -1004,7 +995,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1937</v>
       </c>
@@ -1018,7 +1009,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1938</v>
       </c>
@@ -1032,7 +1023,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1939</v>
       </c>
@@ -1046,7 +1037,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1940</v>
       </c>
@@ -1060,7 +1051,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1941</v>
       </c>
@@ -1074,7 +1065,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1942</v>
       </c>
@@ -1088,7 +1079,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1943</v>
       </c>
@@ -1102,7 +1093,7 @@
         <v>105.8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1944</v>
       </c>
@@ -1116,7 +1107,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1945</v>
       </c>
@@ -1130,7 +1121,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1946</v>
       </c>
@@ -1144,7 +1135,7 @@
         <v>114.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1947</v>
       </c>
@@ -1158,7 +1149,7 @@
         <v>122.8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1948</v>
       </c>
@@ -1172,7 +1163,7 @@
         <v>129.19999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1949</v>
       </c>
@@ -1186,7 +1177,7 @@
         <v>138.80000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1950</v>
       </c>
@@ -1200,7 +1191,7 @@
         <v>144.30000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1951</v>
       </c>
@@ -1214,7 +1205,7 @@
         <v>152.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1952</v>
       </c>
@@ -1228,7 +1219,7 @@
         <v>160.1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1953</v>
       </c>
@@ -1242,7 +1233,7 @@
         <v>166.2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1954</v>
       </c>
@@ -1256,7 +1247,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1955</v>
       </c>
@@ -1270,7 +1261,7 @@
         <v>175.5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1956</v>
       </c>
@@ -1284,7 +1275,7 @@
         <v>183.3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1957</v>
       </c>
@@ -1298,7 +1289,7 @@
         <v>196.3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1958</v>
       </c>
@@ -1312,7 +1303,7 @@
         <v>208.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1959</v>
       </c>
@@ -1326,7 +1317,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1960</v>
       </c>
@@ -1340,7 +1331,7 @@
         <v>223.6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1961</v>
       </c>
@@ -1354,7 +1345,7 @@
         <v>234.8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1962</v>
       </c>
@@ -1368,7 +1359,7 @@
         <v>246.4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1963</v>
       </c>
@@ -1382,7 +1373,7 @@
         <v>260.7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1964</v>
       </c>
@@ -1396,7 +1387,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1965</v>
       </c>
@@ -1410,7 +1401,7 @@
         <v>283.3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -1424,7 +1415,7 @@
         <v>292.89999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1967</v>
       </c>
@@ -1438,7 +1429,7 @@
         <v>303.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1968</v>
       </c>
@@ -1452,7 +1443,7 @@
         <v>315.89999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1969</v>
       </c>
@@ -1466,7 +1457,7 @@
         <v>328.2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1970</v>
       </c>
@@ -1480,7 +1471,7 @@
         <v>343.1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1971</v>
       </c>
@@ -1494,7 +1485,7 @@
         <v>353.7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1972</v>
       </c>
@@ -1508,7 +1499,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1973</v>
       </c>
@@ -1522,7 +1513,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1974</v>
       </c>
@@ -1536,7 +1527,7 @@
         <v>361.3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1975</v>
       </c>
@@ -1550,7 +1541,7 @@
         <v>359.1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1976</v>
       </c>
@@ -1564,7 +1555,7 @@
         <v>353.9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1977</v>
       </c>
@@ -1578,7 +1569,7 @@
         <v>354.1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1978</v>
       </c>
@@ -1592,7 +1583,7 @@
         <v>360.9</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1979</v>
       </c>
@@ -1606,7 +1597,7 @@
         <v>370.3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1980</v>
       </c>
@@ -1620,7 +1611,7 @@
         <v>386.6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1981</v>
       </c>
@@ -1634,7 +1625,7 @@
         <v>412.6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1982</v>
       </c>
@@ -1648,7 +1639,7 @@
         <v>412.9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1983</v>
       </c>
@@ -1662,7 +1653,7 @@
         <v>406.6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1984</v>
       </c>
@@ -1676,7 +1667,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1985</v>
       </c>
@@ -1690,7 +1681,7 @@
         <v>413.9</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1986</v>
       </c>
@@ -1704,7 +1695,7 @@
         <v>419.3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1987</v>
       </c>
@@ -1718,7 +1709,7 @@
         <v>434.7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1988</v>
       </c>
@@ -1732,7 +1723,7 @@
         <v>456.5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1989</v>
       </c>
@@ -1746,7 +1737,7 @@
         <v>494.8</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1990</v>
       </c>
@@ -1760,7 +1751,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1991</v>
       </c>
@@ -1774,7 +1765,7 @@
         <v>565.9</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1992</v>
       </c>
@@ -1788,7 +1779,7 @@
         <v>612.9</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1993</v>
       </c>
@@ -1802,7 +1793,7 @@
         <v>674.1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1994</v>
       </c>
@@ -1816,7 +1807,7 @@
         <v>736.4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1995</v>
       </c>
@@ -1830,7 +1821,7 @@
         <v>824.1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1996</v>
       </c>
@@ -1844,7 +1835,7 @@
         <v>917.8</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1997</v>
       </c>
@@ -1858,7 +1849,7 @@
         <v>1017.5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1998</v>
       </c>
@@ -1872,7 +1863,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1999</v>
       </c>
@@ -1886,7 +1877,7 @@
         <v>1169.7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2000</v>
       </c>
@@ -1900,7 +1891,7 @@
         <v>1230.4000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2001</v>
       </c>
@@ -1914,7 +1905,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2002</v>
       </c>
@@ -1928,7 +1919,7 @@
         <v>1354.7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2003</v>
       </c>
@@ -1942,7 +1933,7 @@
         <v>1421.8</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2004</v>
       </c>
@@ -1956,7 +1947,7 @@
         <v>1506.4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2005</v>
       </c>
@@ -1970,7 +1961,7 @@
         <v>1636.9</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2006</v>
       </c>
@@ -1984,7 +1975,7 @@
         <v>1717.9</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2007</v>
       </c>
@@ -1998,7 +1989,7 @@
         <v>1812.6</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2008</v>
       </c>
@@ -2010,6 +2001,39 @@
       </c>
       <c r="D110">
         <v>1960.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88BA4B6-8984-457F-95C1-4AE140482518}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
